--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/20/seed3/result_data_RandomForest.xlsx
@@ -559,12 +559,12 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0652</v>
+        <v>15.176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.30480000000002</v>
+        <v>-22.34230000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.8446</v>
+        <v>-21.87989999999998</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.51550000000001</v>
+        <v>-21.4889</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.85979999999999</v>
+        <v>16.7854</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>15.8303</v>
+        <v>15.9731</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.04130000000001</v>
+        <v>-22.07610000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.85330000000002</v>
+        <v>17.68230000000002</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.7135</v>
+        <v>15.894</v>
       </c>
     </row>
     <row r="21">
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.8006</v>
+        <v>-21.56209999999998</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.19560000000002</v>
+        <v>17.09580000000001</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.5501</v>
+        <v>15.6206</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>15.99830000000001</v>
+        <v>16.04550000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>15.6159</v>
+        <v>15.767</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.5605</v>
+        <v>-19.57039999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.04560000000001</v>
+        <v>17.1032</v>
       </c>
     </row>
     <row r="41">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.56859999999999</v>
+        <v>16.50939999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.41789999999999</v>
+        <v>16.5152</v>
       </c>
     </row>
     <row r="51">
@@ -1358,12 +1358,12 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.51030000000001</v>
+        <v>16.6226</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.28130000000001</v>
+        <v>-22.31070000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.48199999999999</v>
+        <v>-21.4838</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.06110000000001</v>
+        <v>17.11260000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1732,12 +1732,12 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.15309999999998</v>
+        <v>16.16379999999998</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.02639999999999</v>
+        <v>-20.23729999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.64589999999998</v>
+        <v>-19.74439999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.23799999999999</v>
+        <v>-20.29189999999999</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.2447</v>
+        <v>-19.3995</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.847</v>
+        <v>-21.7756</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.0384</v>
+        <v>-22.1</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.11550000000001</v>
+        <v>-22.0652</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.2333</v>
+        <v>16.13839999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.40970000000001</v>
+        <v>16.3741</v>
       </c>
     </row>
     <row r="89">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.38920000000002</v>
+        <v>18.50910000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.17509999999999</v>
+        <v>16.1549</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.33100000000001</v>
+        <v>15.5709</v>
       </c>
     </row>
     <row r="99">
@@ -2145,7 +2145,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.46029999999998</v>
+        <v>-21.32629999999999</v>
       </c>
       <c r="B101" t="n">
         <v>7.61</v>
@@ -2157,12 +2157,12 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.89550000000001</v>
+        <v>16.8127</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-19.4995</v>
+        <v>-19.55469999999999</v>
       </c>
       <c r="B102" t="n">
         <v>9.01</v>
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.5619</v>
+        <v>16.5487</v>
       </c>
     </row>
   </sheetData>
